--- a/tools/sensitiveFliter/data/configex.xlsx
+++ b/tools/sensitiveFliter/data/configex.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4">
   <si>
     <t>屏蔽字</t>
   </si>
@@ -22,31 +22,10 @@
     <t>字数</t>
   </si>
   <si>
-    <t>卍</t>
+    <t>K粉</t>
   </si>
   <si>
-    <t>铀</t>
-  </si>
-  <si>
-    <t>屄</t>
-  </si>
-  <si>
-    <t>逼</t>
-  </si>
-  <si>
-    <t>茎</t>
-  </si>
-  <si>
-    <t>尻</t>
-  </si>
-  <si>
-    <t>卍二</t>
-  </si>
-  <si>
-    <t>尻是国问个</t>
-  </si>
-  <si>
-    <t>尻卍二是国问个</t>
+    <t>一手K粉</t>
   </si>
 </sst>
 </file>
@@ -91,6 +70,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -100,6 +126,28 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -113,115 +161,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,49 +215,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,133 +383,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,11 +433,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,6 +474,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -512,21 +506,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -535,10 +514,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -547,16 +526,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -565,119 +544,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -687,7 +666,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1007,13 +985,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A3" sqref="$A2:$XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="19.625" customWidth="1"/>
   </cols>
@@ -1031,106 +1009,20 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:7">
-      <c r="A2" s="2"/>
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="2:3">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:7">
-      <c r="A3" s="2"/>
-      <c r="B3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:7">
-      <c r="A4" s="2"/>
-      <c r="B4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:7">
-      <c r="A5" s="2"/>
-      <c r="B5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:7">
-      <c r="A6" s="2"/>
-      <c r="B6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:7">
-      <c r="A7" s="2"/>
-      <c r="B7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="2:3">
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8">
+      <c r="C2">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
-      <c r="B9" t="s">
-        <v>9</v>
+    <row r="3" spans="2:3">
+      <c r="B3" t="s">
+        <v>3</v>
       </c>
-      <c r="C9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3">
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10">
-        <v>7</v>
+      <c r="C3">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
